--- a/Building Locations.xlsx
+++ b/Building Locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="2300" yWindow="6580" windowWidth="16100" windowHeight="6960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -100,8 +100,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -115,19 +117,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,15 +464,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -497,10 +501,10 @@
         <v>34.242060375099598</v>
       </c>
       <c r="C2" s="1">
+        <v>-118.529444932937</v>
+      </c>
+      <c r="D2" s="1">
         <v>34.241040412926203</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-118.529444932937</v>
       </c>
       <c r="E2" s="1">
         <v>-118.52784633636399</v>
@@ -514,10 +518,10 @@
         <v>34.241900729662198</v>
       </c>
       <c r="C3" s="1">
+        <v>-118.53327512740999</v>
+      </c>
+      <c r="D3" s="1">
         <v>34.241235537080598</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-118.53327512740999</v>
       </c>
       <c r="E3" s="1">
         <v>-118.531912565231</v>
@@ -531,10 +535,10 @@
         <v>34.2406945099045</v>
       </c>
       <c r="C4" s="1">
+        <v>-118.531419038772</v>
+      </c>
+      <c r="D4" s="1">
         <v>34.239967221992302</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-118.531419038772</v>
       </c>
       <c r="E4" s="1">
         <v>-118.53018522262499</v>
@@ -548,10 +552,10 @@
         <v>34.240676771249703</v>
       </c>
       <c r="C5" s="1">
+        <v>-118.52668762207</v>
+      </c>
+      <c r="D5" s="1">
         <v>34.239798703164801</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-118.52668762207</v>
       </c>
       <c r="E5" s="1">
         <v>-118.525282144546</v>
@@ -565,10 +569,10 @@
         <v>34.240384082905699</v>
       </c>
       <c r="C6" s="1">
+        <v>-118.52999210357601</v>
+      </c>
+      <c r="D6" s="1">
         <v>34.2396922700473</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-118.52999210357601</v>
       </c>
       <c r="E6" s="1">
         <v>-118.528629541397</v>
